--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H2">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I2">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J2">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>1.12371528222</v>
+        <v>0.06993433933333335</v>
       </c>
       <c r="R2">
-        <v>10.11343753998</v>
+        <v>0.629409054</v>
       </c>
       <c r="S2">
-        <v>0.0008321278176325654</v>
+        <v>6.244535264428248E-05</v>
       </c>
       <c r="T2">
-        <v>0.0008575418372124584</v>
+        <v>6.390631040526971E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H3">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I3">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J3">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>83.52401135140731</v>
+        <v>0.5235594516000001</v>
       </c>
       <c r="R3">
-        <v>751.7161021626658</v>
+        <v>4.7120350644</v>
       </c>
       <c r="S3">
-        <v>0.06185076805973084</v>
+        <v>0.000467493578935206</v>
       </c>
       <c r="T3">
-        <v>0.06373975265704122</v>
+        <v>0.0004784309560727442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H4">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I4">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J4">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>0.3782462279673333</v>
+        <v>55.72660790232</v>
       </c>
       <c r="R4">
-        <v>2.269477367804</v>
+        <v>501.53947112088</v>
       </c>
       <c r="S4">
-        <v>0.0002800969366407403</v>
+        <v>0.04975906994050053</v>
       </c>
       <c r="T4">
-        <v>0.0001924342523306457</v>
+        <v>0.05092322221654243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H5">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I5">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J5">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>157.4529167125189</v>
+        <v>0.46030043234</v>
       </c>
       <c r="R5">
-        <v>1417.07625041267</v>
+        <v>2.76180259404</v>
       </c>
       <c r="S5">
-        <v>0.116596217953917</v>
+        <v>0.0004110087132271899</v>
       </c>
       <c r="T5">
-        <v>0.1201571835931293</v>
+        <v>0.0002804163885650099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.616901666666666</v>
+        <v>0.54332</v>
       </c>
       <c r="H6">
-        <v>13.850705</v>
+        <v>1.62996</v>
       </c>
       <c r="I6">
-        <v>0.7109062584872947</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J6">
-        <v>0.7322371094632415</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>4.448984953049999</v>
+        <v>47.12108847256</v>
       </c>
       <c r="R6">
-        <v>40.04086457744999</v>
+        <v>424.08979625304</v>
       </c>
       <c r="S6">
-        <v>0.003294539282537603</v>
+        <v>0.04207508092164017</v>
       </c>
       <c r="T6">
-        <v>0.003395157822212607</v>
+        <v>0.04305946027756753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J7">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>330.6861405201016</v>
+        <v>0.5942721928611111</v>
       </c>
       <c r="R7">
-        <v>2976.175264680915</v>
+        <v>5.34844973575</v>
       </c>
       <c r="S7">
-        <v>0.244877987143415</v>
+        <v>0.0005306339775803863</v>
       </c>
       <c r="T7">
-        <v>0.2523568068969153</v>
+        <v>0.0005430485736225558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J8">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>1.497542841501666</v>
+        <v>4.44898495305</v>
       </c>
       <c r="R8">
-        <v>8.98525704901</v>
+        <v>40.04086457745</v>
       </c>
       <c r="S8">
-        <v>0.00110895266463599</v>
+        <v>0.003972561075870421</v>
       </c>
       <c r="T8">
-        <v>0.0007618807954441043</v>
+        <v>0.004065502242651069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J9">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,122 +992,122 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>623.3835815456027</v>
+        <v>473.5409499041099</v>
       </c>
       <c r="R9">
-        <v>5610.452233910425</v>
+        <v>4261.86854913699</v>
       </c>
       <c r="S9">
-        <v>0.4616247793967062</v>
+        <v>0.4228313571009352</v>
       </c>
       <c r="T9">
-        <v>0.4757232639486695</v>
+        <v>0.4327238267017443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5675655000000001</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H10">
-        <v>1.135131</v>
+        <v>13.850705</v>
       </c>
       <c r="I10">
-        <v>0.08739321198122495</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J10">
-        <v>0.0600103057788119</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>0.546923142765</v>
+        <v>3.911436783549166</v>
       </c>
       <c r="R10">
-        <v>3.28153885659</v>
+        <v>23.468620701295</v>
       </c>
       <c r="S10">
-        <v>0.0004050046914932697</v>
+        <v>0.003492576774484898</v>
       </c>
       <c r="T10">
-        <v>0.0002782492944500673</v>
+        <v>0.002382858889285213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5675655000000001</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H11">
-        <v>1.135131</v>
+        <v>13.850705</v>
       </c>
       <c r="I11">
-        <v>0.08739321198122495</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J11">
-        <v>0.0600103057788119</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>40.6519476129255</v>
+        <v>400.4149155269632</v>
       </c>
       <c r="R11">
-        <v>243.911685677553</v>
+        <v>3603.73423974267</v>
       </c>
       <c r="S11">
-        <v>0.03010336958560144</v>
+        <v>0.3575360951782657</v>
       </c>
       <c r="T11">
-        <v>0.02068183782484014</v>
+        <v>0.3659009311662899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H12">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I12">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J12">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>0.1840961131455</v>
+        <v>0.009411633950000001</v>
       </c>
       <c r="R12">
-        <v>0.7363844525820001</v>
+        <v>0.08470470555</v>
       </c>
       <c r="S12">
-        <v>0.0001363258997098974</v>
+        <v>8.403779982325867E-06</v>
       </c>
       <c r="T12">
-        <v>6.243974651205565E-05</v>
+        <v>8.600392973796132E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H13">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I13">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J13">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,60 +1240,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>76.63386394087252</v>
+        <v>0.07045966197</v>
       </c>
       <c r="R13">
-        <v>459.8031836452351</v>
+        <v>0.63413695773</v>
       </c>
       <c r="S13">
-        <v>0.05674851180442034</v>
+        <v>6.291442059589805E-05</v>
       </c>
       <c r="T13">
-        <v>0.03898777891300964</v>
+        <v>6.438635256770038E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1437943333333333</v>
+        <v>0.073119</v>
       </c>
       <c r="H14">
-        <v>0.431383</v>
+        <v>0.219357</v>
       </c>
       <c r="I14">
-        <v>0.02214131876355931</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J14">
-        <v>0.02280567241823297</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,152 +1302,152 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>0.13856453343</v>
+        <v>7.499583750294</v>
       </c>
       <c r="R14">
-        <v>1.24708080087</v>
+        <v>67.496253752646</v>
       </c>
       <c r="S14">
-        <v>0.0001026090902462307</v>
+        <v>0.006696483536367994</v>
       </c>
       <c r="T14">
-        <v>0.0001057428749525415</v>
+        <v>0.00685315299501466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1437943333333333</v>
+        <v>0.073119</v>
       </c>
       <c r="H15">
-        <v>0.431383</v>
+        <v>0.219357</v>
       </c>
       <c r="I15">
-        <v>0.02214131876355931</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J15">
-        <v>0.02280567241823297</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>10.29928652411433</v>
+        <v>0.0619463802405</v>
       </c>
       <c r="R15">
-        <v>92.69357871702898</v>
+        <v>0.371678281443</v>
       </c>
       <c r="S15">
-        <v>0.007626774285344161</v>
+        <v>5.531279191352959E-05</v>
       </c>
       <c r="T15">
-        <v>0.007859703634552321</v>
+        <v>3.773791856637885E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1437943333333333</v>
+        <v>0.073119</v>
       </c>
       <c r="H16">
-        <v>0.431383</v>
+        <v>0.219357</v>
       </c>
       <c r="I16">
-        <v>0.02214131876355931</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J16">
-        <v>0.02280567241823297</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>0.04664127375433334</v>
+        <v>6.341468872901999</v>
       </c>
       <c r="R16">
-        <v>0.279847642526</v>
+        <v>57.07321985611799</v>
       </c>
       <c r="S16">
-        <v>3.453855434280547E-05</v>
+        <v>0.005662386516066788</v>
       </c>
       <c r="T16">
-        <v>2.372893099528609E-05</v>
+        <v>0.005794862467855886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H17">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I17">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J17">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>135.0220616666667</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N17">
-        <v>405.066185</v>
+        <v>0.38615</v>
       </c>
       <c r="O17">
-        <v>0.6493469059886695</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P17">
-        <v>0.6496847234325412</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q17">
-        <v>19.41540734265056</v>
+        <v>0.04843009634166667</v>
       </c>
       <c r="R17">
-        <v>174.738666083855</v>
+        <v>0.29058057805</v>
       </c>
       <c r="S17">
-        <v>0.01437739683362611</v>
+        <v>4.324391241100187E-05</v>
       </c>
       <c r="T17">
-        <v>0.01481649697773282</v>
+        <v>2.950375832789657E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3762535</v>
+      </c>
+      <c r="H18">
+        <v>0.752507</v>
+      </c>
+      <c r="I18">
+        <v>0.0642475070420447</v>
+      </c>
+      <c r="J18">
+        <v>0.0437690215344491</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P18">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q18">
+        <v>0.3625691602050001</v>
+      </c>
+      <c r="R18">
+        <v>2.17541496123</v>
+      </c>
+      <c r="S18">
+        <v>0.0003237430893431082</v>
+      </c>
+      <c r="T18">
+        <v>0.0002208782077237677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3762535</v>
+      </c>
+      <c r="H19">
+        <v>0.752507</v>
+      </c>
+      <c r="I19">
+        <v>0.0642475070420447</v>
+      </c>
+      <c r="J19">
+        <v>0.0437690215344491</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>102.566826</v>
+      </c>
+      <c r="N19">
+        <v>307.700478</v>
+      </c>
+      <c r="O19">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P19">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q19">
+        <v>38.591127266391</v>
+      </c>
+      <c r="R19">
+        <v>231.546763598346</v>
+      </c>
+      <c r="S19">
+        <v>0.03445855890057078</v>
+      </c>
+      <c r="T19">
+        <v>0.02350982918630131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3762535</v>
+      </c>
+      <c r="H20">
+        <v>0.752507</v>
+      </c>
+      <c r="I20">
+        <v>0.0642475070420447</v>
+      </c>
+      <c r="J20">
+        <v>0.0437690215344491</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.8471995</v>
+      </c>
+      <c r="N20">
+        <v>1.694399</v>
+      </c>
+      <c r="O20">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P20">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q20">
+        <v>0.31876177707325</v>
+      </c>
+      <c r="R20">
+        <v>1.275047108293</v>
+      </c>
+      <c r="S20">
+        <v>0.0002846268624056293</v>
+      </c>
+      <c r="T20">
+        <v>0.0001294604133290939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3762535</v>
+      </c>
+      <c r="H21">
+        <v>0.752507</v>
+      </c>
+      <c r="I21">
+        <v>0.0642475070420447</v>
+      </c>
+      <c r="J21">
+        <v>0.0437690215344491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N21">
+        <v>260.184174</v>
+      </c>
+      <c r="O21">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P21">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q21">
+        <v>32.631735370703</v>
+      </c>
+      <c r="R21">
+        <v>195.790412224218</v>
+      </c>
+      <c r="S21">
+        <v>0.02913733427731418</v>
+      </c>
+      <c r="T21">
+        <v>0.01987934996876703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J22">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.38615</v>
+      </c>
+      <c r="O22">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P22">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q22">
+        <v>0.03175680437777778</v>
+      </c>
+      <c r="R22">
+        <v>0.2858112394</v>
+      </c>
+      <c r="S22">
+        <v>2.835609612001616E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.901950911944023E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J23">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.89089</v>
+      </c>
+      <c r="O23">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P23">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q23">
+        <v>0.23774550876</v>
+      </c>
+      <c r="R23">
+        <v>2.13970957884</v>
+      </c>
+      <c r="S23">
+        <v>0.0002122862999155601</v>
+      </c>
+      <c r="T23">
+        <v>0.000217252903582283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J24">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>102.566826</v>
+      </c>
+      <c r="N24">
+        <v>307.700478</v>
+      </c>
+      <c r="O24">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P24">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q24">
+        <v>25.305150554952</v>
+      </c>
+      <c r="R24">
+        <v>227.746354994568</v>
+      </c>
+      <c r="S24">
+        <v>0.02259532391646489</v>
+      </c>
+      <c r="T24">
+        <v>0.02312395915415542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J25">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.8471995</v>
+      </c>
+      <c r="N25">
+        <v>1.694399</v>
+      </c>
+      <c r="O25">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P25">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q25">
+        <v>0.2090199310406667</v>
+      </c>
+      <c r="R25">
+        <v>1.254119586244</v>
+      </c>
+      <c r="S25">
+        <v>0.0001866368286015509</v>
+      </c>
+      <c r="T25">
+        <v>0.0001273355619123926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.740156</v>
+      </c>
+      <c r="I26">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J26">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N26">
+        <v>260.184174</v>
+      </c>
+      <c r="O26">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P26">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q26">
+        <v>21.39743083234933</v>
+      </c>
+      <c r="R26">
+        <v>192.576877491144</v>
+      </c>
+      <c r="S26">
+        <v>0.01910606615784283</v>
+      </c>
+      <c r="T26">
+        <v>0.01955306748705691</v>
       </c>
     </row>
   </sheetData>
